--- a/journal.xlsx
+++ b/journal.xlsx
@@ -5,13 +5,13 @@
     <workbookView tabRatio="600" windowHeight="14980" windowWidth="25600" xWindow="0" yWindow="1080"/>
   </bookViews>
   <sheets>
-    <sheet name="Журнал регистрации ТС" sheetId="1" r:id="Rd2e0jYZv0Vo9gwvK"/>
+    <sheet name="Журнал регистрации ТС" sheetId="1" r:id="RbQ32DnRkJYap2TFS"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="8737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="8739">
   <si>
     <t>РЕГИСТРАЦИОННЫЙ НОМЕР</t>
   </si>
@@ -26222,6 +26222,12 @@
   </si>
   <si>
     <t>00666/15</t>
+  </si>
+  <si>
+    <t>074870011500896</t>
+  </si>
+  <si>
+    <t>074870011500897</t>
   </si>
 </sst>
 </file>
@@ -103050,6 +103056,16 @@
         <v>8736</v>
       </c>
     </row>
+    <row r="893" spans="1:1">
+      <c r="A893" t="s" s="5">
+        <v>8737</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1">
+      <c r="A894" t="s" s="5">
+        <v>8738</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="15" right="0.75" top="1"/>
